--- a/results/min_var_portfolio/min_var_2012.xlsx
+++ b/results/min_var_portfolio/min_var_2012.xlsx
@@ -531,7 +531,7 @@
         <v>0.0006976906722697989</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09279634117982595</v>
+        <v>0.1094510731625988</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +577,7 @@
         <v>0.1511387280698618</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000013</v>
       </c>
     </row>
     <row r="4">
@@ -623,7 +623,7 @@
         <v>0.07978689960439049</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001000000000000006</v>
+        <v>0.001000000000000013</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         <v>0.04958723747316521</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01899899841602531</v>
+        <v>0.02061320386266954</v>
       </c>
     </row>
     <row r="6">
@@ -715,7 +715,7 @@
         <v>-0.01491727938019872</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001000000000000007</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +761,7 @@
         <v>0.1127329596210554</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000009</v>
       </c>
     </row>
     <row r="8">
@@ -853,7 +853,7 @@
         <v>0.05041684203930879</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001000000000000004</v>
+        <v>0.001000000000000006</v>
       </c>
     </row>
     <row r="10">
@@ -899,7 +899,7 @@
         <v>0.05583803449527142</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09242547472368298</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -945,7 +945,7 @@
         <v>0.1140184699181921</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04244562336532348</v>
+        <v>0.05499632803248732</v>
       </c>
     </row>
     <row r="12">
@@ -991,7 +991,7 @@
         <v>-0.0002372044389915853</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3515328642413338</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
@@ -1083,7 +1083,7 @@
         <v>-0.06661849172660329</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001000000000000001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="15">
@@ -1129,7 +1129,7 @@
         <v>-0.03026773352285457</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1143239320964806</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
@@ -1175,7 +1175,7 @@
         <v>0.02565281750784665</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06283433929595013</v>
+        <v>0.1207720526009886</v>
       </c>
     </row>
     <row r="17">
@@ -1221,7 +1221,7 @@
         <v>0.0578601330808126</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1267,7 +1267,7 @@
         <v>0.01986474102643975</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001000000000000005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="19">
@@ -1313,7 +1313,7 @@
         <v>-0.02033063963297031</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2126424266813777</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20">
@@ -1359,7 +1359,7 @@
         <v>-0.007494180273339936</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001</v>
+        <v>0.07382578160983198</v>
       </c>
     </row>
     <row r="21">
@@ -1405,7 +1405,7 @@
         <v>0.05372396622841201</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001000000000000001</v>
+        <v>0.01034156073142385</v>
       </c>
     </row>
     <row r="22">
@@ -1415,40 +1415,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01607907145329931</v>
+        <v>-0.004627277821884304</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01830834329843881</v>
+        <v>0.02530191884529346</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02201245418699901</v>
+        <v>0.01936141600946563</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02440968526145722</v>
+        <v>0.01704807988479111</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02775915276314201</v>
+        <v>0.02968661994640601</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04134982913034646</v>
+        <v>0.03730654167890406</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01832246504050561</v>
+        <v>-0.01424328450558998</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01799828188834452</v>
+        <v>0.01711436841469424</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02836908565676798</v>
+        <v>0.02158004386232901</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04083838985173152</v>
+        <v>0.04355630760117607</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006360600153186131</v>
+        <v>0.0008706594484029512</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005339949798636561</v>
+        <v>0.01176136722928472</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1459,43 +1459,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9840495067543027</v>
+        <v>0.9953834115342403</v>
       </c>
       <c r="C23" t="n">
-        <v>1.01847696852648</v>
+        <v>1.025624729217677</v>
       </c>
       <c r="D23" t="n">
-        <v>1.022256515764967</v>
+        <v>1.019550063753326</v>
       </c>
       <c r="E23" t="n">
-        <v>1.024710040508529</v>
+        <v>1.017194227730828</v>
       </c>
       <c r="F23" t="n">
-        <v>1.028148027987317</v>
+        <v>1.030131660650109</v>
       </c>
       <c r="G23" t="n">
-        <v>1.042216639520096</v>
+        <v>1.0380111657588</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9818443708201001</v>
+        <v>0.9858576711892266</v>
       </c>
       <c r="I23" t="n">
-        <v>1.01816122707362</v>
+        <v>1.017261658275721</v>
       </c>
       <c r="J23" t="n">
-        <v>1.028775320572846</v>
+        <v>1.021814577049407</v>
       </c>
       <c r="K23" t="n">
-        <v>1.041683745276959</v>
+        <v>1.044518807004616</v>
       </c>
       <c r="L23" t="n">
-        <v>1.006380871727342</v>
+        <v>1.000871038582365</v>
       </c>
       <c r="M23" t="n">
-        <v>1.005354232742647</v>
+        <v>1.011830804065861</v>
       </c>
       <c r="N23" t="n">
-        <v>1.227695081726661</v>
+        <v>1.133808273796276</v>
       </c>
     </row>
   </sheetData>
